--- a/seating.xlsx
+++ b/seating.xlsx
@@ -16,197 +16,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="183">
   <si>
     <t>HT1</t>
   </si>
   <si>
-    <t>葉雪梅</t>
-  </si>
-  <si>
-    <t>黃錦萍</t>
-  </si>
-  <si>
-    <t>JZ</t>
-  </si>
-  <si>
-    <t>Me</t>
-  </si>
-  <si>
     <t>葉雪容</t>
   </si>
   <si>
     <t>ANI</t>
   </si>
   <si>
-    <t>Faye</t>
-  </si>
-  <si>
-    <t>JonathanW</t>
-  </si>
-  <si>
-    <t>Huayi</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
     <t>溫泉德</t>
   </si>
   <si>
-    <t>葉紅志</t>
-  </si>
-  <si>
-    <t>Rohda</t>
-  </si>
-  <si>
     <t>Richard Zhao</t>
   </si>
   <si>
-    <t>Huayi Daughter 11yr</t>
-  </si>
-  <si>
-    <t>Dad</t>
-  </si>
-  <si>
     <t>溫子茹</t>
   </si>
   <si>
-    <t>廖練雲</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
     <t>Tony Tam</t>
   </si>
   <si>
-    <t>Denis</t>
-  </si>
-  <si>
-    <t>Mum</t>
-  </si>
-  <si>
     <t>溫國郷</t>
   </si>
   <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Sis</t>
-  </si>
-  <si>
     <t>何祥增</t>
   </si>
   <si>
-    <t>Ms Tong</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Brilly</t>
-  </si>
-  <si>
     <t>溫素芳</t>
   </si>
   <si>
-    <t>Chan Dan</t>
-  </si>
-  <si>
-    <t>Begger</t>
-  </si>
-  <si>
-    <t>Ho Kim Chin</t>
-  </si>
-  <si>
     <t>Chris Ng</t>
   </si>
   <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>Sol Bread</t>
-  </si>
-  <si>
-    <t>Ho Ming</t>
-  </si>
-  <si>
-    <t>Yvoone</t>
-  </si>
-  <si>
-    <t>Hao</t>
-  </si>
-  <si>
-    <t>Fai Chi</t>
-  </si>
-  <si>
-    <t>Harry Cheung</t>
-  </si>
-  <si>
-    <t>Pui</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>Shum Kit</t>
-  </si>
-  <si>
-    <t>Harry Cheung Wife</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Jasper</t>
-  </si>
-  <si>
-    <t>Mak Tin Wing</t>
-  </si>
-  <si>
-    <t>#Somingtat</t>
-  </si>
-  <si>
-    <t>Tin Shing</t>
-  </si>
-  <si>
-    <t>SomingtatW</t>
-  </si>
-  <si>
-    <t>Francis</t>
-  </si>
-  <si>
-    <t>Small Tony</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Denise</t>
-  </si>
-  <si>
-    <t>Lam Kei</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthony </t>
-  </si>
-  <si>
-    <t>Lam Kuen</t>
-  </si>
-  <si>
-    <t>KaYan</t>
-  </si>
-  <si>
     <t>HT2</t>
   </si>
   <si>
@@ -453,9 +297,6 @@
     <t>葉榛盈 先生</t>
   </si>
   <si>
-    <t xml:space="preserve">         吳鎮山 先生</t>
-  </si>
-  <si>
     <t>謝國棟 先生</t>
   </si>
   <si>
@@ -525,9 +366,6 @@
     <t># 丁倩婷 小姐</t>
   </si>
   <si>
-    <t>甘偉洪 闔府</t>
-  </si>
-  <si>
     <t>廖聰基  先生夫人</t>
   </si>
   <si>
@@ -540,33 +378,18 @@
     <t>廖清泉 先生夫人</t>
   </si>
   <si>
-    <t>楊文浩 闔府</t>
-  </si>
-  <si>
-    <t>廖鋼基 闔府</t>
-  </si>
-  <si>
     <t>張志謀 先生夫人</t>
   </si>
   <si>
-    <t>廖均梅 闔府</t>
-  </si>
-  <si>
     <t>廖海平 先生夫人</t>
   </si>
   <si>
-    <t>廖富盛  闔府</t>
-  </si>
-  <si>
     <t>廖維華 先生夫人</t>
   </si>
   <si>
     <t>廖志 先生夫人</t>
   </si>
   <si>
-    <t>廖雲基 先生夫人</t>
-  </si>
-  <si>
     <t>廖日雲  女士</t>
   </si>
   <si>
@@ -580,6 +403,168 @@
   </si>
   <si>
     <t>#Vegan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吳鎮山 先生</t>
+  </si>
+  <si>
+    <t>Denise Tong</t>
+  </si>
+  <si>
+    <t>張志忠 先生夫人</t>
+  </si>
+  <si>
+    <t>何樂 先生夫人</t>
+  </si>
+  <si>
+    <t>Anthony  Si</t>
+  </si>
+  <si>
+    <t>王文鋒 先生</t>
+  </si>
+  <si>
+    <t>潘建民 先生</t>
+  </si>
+  <si>
+    <t>黃舜平 先生</t>
+  </si>
+  <si>
+    <t>林漢祺 先生</t>
+  </si>
+  <si>
+    <t>黃錦萍 小姐</t>
+  </si>
+  <si>
+    <t>Yvonne Kwan</t>
+  </si>
+  <si>
+    <t>張天成 先生</t>
+  </si>
+  <si>
+    <t>張天朗 先生</t>
+  </si>
+  <si>
+    <t>Sean Li</t>
+  </si>
+  <si>
+    <t>唐太</t>
+  </si>
+  <si>
+    <t>何劍菁 先生</t>
+  </si>
+  <si>
+    <t>Patrick Cheuk</t>
+  </si>
+  <si>
+    <t>何柏鳴 先生</t>
+  </si>
+  <si>
+    <t>Tim Chung</t>
+  </si>
+  <si>
+    <t>Leo Lam</t>
+  </si>
+  <si>
+    <t>麥天穎 小姐</t>
+  </si>
+  <si>
+    <t>沈俊傑 先生</t>
+  </si>
+  <si>
+    <t>陳志光 先生</t>
+  </si>
+  <si>
+    <t>駱壽揚 先生</t>
+  </si>
+  <si>
+    <t>李宏志 先生</t>
+  </si>
+  <si>
+    <t>Ocean Lun</t>
+  </si>
+  <si>
+    <t>劉可珮 小姐</t>
+  </si>
+  <si>
+    <t>Gabriel Wai</t>
+  </si>
+  <si>
+    <t>Brilly Tsang</t>
+  </si>
+  <si>
+    <t>Natalie Tsang</t>
+  </si>
+  <si>
+    <t>Denis Law</t>
+  </si>
+  <si>
+    <t>Huayi Dong</t>
+  </si>
+  <si>
+    <t>Ashley Dong</t>
+  </si>
+  <si>
+    <t>John Zendano</t>
+  </si>
+  <si>
+    <t>Calvin Li</t>
+  </si>
+  <si>
+    <t>陳定邦 先生</t>
+  </si>
+  <si>
+    <t>葉嘉欣小姐</t>
+  </si>
+  <si>
+    <t>Timothy Wong</t>
+  </si>
+  <si>
+    <t>Hao Zhang</t>
+  </si>
+  <si>
+    <t>男家父母</t>
+  </si>
+  <si>
+    <t>女家父母</t>
+  </si>
+  <si>
+    <t>廖素蘭 小姐</t>
+  </si>
+  <si>
+    <t>#蘇明達 先生夫人</t>
+  </si>
+  <si>
+    <t>蘇明達 先生夫人</t>
+  </si>
+  <si>
+    <t>葉雪梅 女士</t>
+  </si>
+  <si>
+    <t>廖均梅先生 闔府</t>
+  </si>
+  <si>
+    <t>廖鋼基先生 闔府</t>
+  </si>
+  <si>
+    <t>葉傳華先生 闔府</t>
+  </si>
+  <si>
+    <t>廖富盛先生  闔府</t>
+  </si>
+  <si>
+    <t>李鑑權先生 闔府</t>
+  </si>
+  <si>
+    <t>甘偉洪先生 闔府</t>
+  </si>
+  <si>
+    <t>楊文浩先生 闔府</t>
+  </si>
+  <si>
+    <t>新郎</t>
+  </si>
+  <si>
+    <t>新娘</t>
   </si>
 </sst>
 </file>
@@ -642,19 +627,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,7 +950,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,789 +960,791 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="7">
         <v>7</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="7">
         <v>8</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="7">
         <v>13</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="7">
         <v>10</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="7">
         <v>9</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="7">
         <v>11</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
+        <v>173</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
+        <v>136</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
+        <v>177</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J15" s="5" t="s">
-        <v>187</v>
+      <c r="J15" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7">
         <v>6</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>17</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="7">
         <v>16</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="7">
         <v>20</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="7">
         <v>15</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="7">
         <v>3</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="7">
         <v>5</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="7">
         <v>18</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>73</v>
+      <c r="F18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="H23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="H24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="J24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="2" t="s">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="D29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>168</v>
-      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/seating.xlsx
+++ b/seating.xlsx
@@ -528,9 +528,6 @@
     <t>女家父母</t>
   </si>
   <si>
-    <t>廖素蘭 小姐</t>
-  </si>
-  <si>
     <t>#蘇明達 先生夫人</t>
   </si>
   <si>
@@ -565,6 +562,9 @@
   </si>
   <si>
     <t>新娘</t>
+  </si>
+  <si>
+    <t>男家家姐</t>
   </si>
 </sst>
 </file>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,16 +1001,16 @@
         <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>132</v>
@@ -1027,7 +1027,7 @@
         <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>134</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
         <v>132</v>
@@ -1047,22 +1047,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -1079,16 +1079,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
         <v>143</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -1105,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
         <v>125</v>
@@ -1212,7 +1212,7 @@
         <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
         <v>150</v>
@@ -1235,10 +1235,10 @@
         <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
         <v>149</v>
@@ -1255,19 +1255,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
         <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -1281,19 +1281,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
         <v>137</v>
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1445,7 +1445,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>23</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>51</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>61</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>61</v>
